--- a/data/env_data.xlsx
+++ b/data/env_data.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Labs\Lab-ccraft\GCE LTER\SALTEx\Soil Analyses\Microbes\JGI Project Materials\Data Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nwisnoski/GitHub/MicroMarsh/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6E48BE-7AE6-D449-856D-0754A00A43A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="27560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="21">
   <si>
     <t>Year</t>
   </si>
@@ -39,95 +46,6 @@
   </si>
   <si>
     <t>Rep</t>
-  </si>
-  <si>
-    <t>DRP
-(µg-P/L)</t>
-  </si>
-  <si>
-    <t>NH4
-(µg-N/L)</t>
-  </si>
-  <si>
-    <t>NO2-3
-(µg-N/L)</t>
-  </si>
-  <si>
-    <t>DOC (μg-C/L)</t>
-  </si>
-  <si>
-    <t>Sulfides (µg-S/L)</t>
-  </si>
-  <si>
-    <r>
-      <t>Cl</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (mg/L)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>SO</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (mg/L)</t>
-    </r>
-  </si>
-  <si>
-    <t>Salinity (ppt) (converted from Cl)</t>
   </si>
   <si>
     <t>C</t>
@@ -148,17 +66,44 @@
     <t>PU</t>
   </si>
   <si>
-    <t xml:space="preserve">Soil Surface Temp (°C) </t>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>DRP</t>
+  </si>
+  <si>
+    <t>NH4</t>
+  </si>
+  <si>
+    <t>DOC</t>
+  </si>
+  <si>
+    <t>Sulfides</t>
+  </si>
+  <si>
+    <t>Cl</t>
+  </si>
+  <si>
+    <t>SO_4_2</t>
+  </si>
+  <si>
+    <t>Salinity</t>
+  </si>
+  <si>
+    <t>Soil_surface_temp</t>
+  </si>
+  <si>
+    <t>NO2_3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -182,24 +127,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <vertAlign val="subscript"/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -275,13 +202,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -308,34 +235,34 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,7 +277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -368,13 +295,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -651,32 +578,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="11.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="8.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
@@ -693,34 +620,34 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K1" s="14" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="M1" s="15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N1" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2014</v>
       </c>
@@ -732,7 +659,7 @@
         <v>2014_3</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -750,7 +677,7 @@
         <v>10950</v>
       </c>
       <c r="J2" s="28" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="K2" s="29">
         <v>20.536899999999999</v>
@@ -763,10 +690,10 @@
         <v>3.7110178299999998E-2</v>
       </c>
       <c r="N2" s="39" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2014</v>
       </c>
@@ -778,7 +705,7 @@
         <v>2014_3</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E3" s="5">
         <v>1</v>
@@ -795,8 +722,8 @@
       <c r="I3" s="3">
         <v>10410</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>14</v>
+      <c r="J3" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="K3" s="2">
         <v>25.0244</v>
@@ -808,11 +735,11 @@
         <f t="shared" ref="M3:M11" si="1">K3*0.001807</f>
         <v>4.52190908E-2</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N3" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2014</v>
       </c>
@@ -824,7 +751,7 @@
         <v>2014_3</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5">
         <v>3</v>
@@ -841,8 +768,8 @@
       <c r="I4" s="3">
         <v>10330</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>14</v>
+      <c r="J4" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="K4" s="2">
         <v>22.9758</v>
@@ -854,11 +781,11 @@
         <f t="shared" si="1"/>
         <v>4.1517270599999996E-2</v>
       </c>
-      <c r="N4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N4" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2014</v>
       </c>
@@ -870,7 +797,7 @@
         <v>2014_3</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -887,8 +814,8 @@
       <c r="I5" s="3">
         <v>11080</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>14</v>
+      <c r="J5" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="K5" s="2">
         <v>22.9133</v>
@@ -900,11 +827,11 @@
         <f t="shared" si="1"/>
         <v>4.1404333100000003E-2</v>
       </c>
-      <c r="N5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N5" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2014</v>
       </c>
@@ -916,7 +843,7 @@
         <v>2014_3</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5">
         <v>5</v>
@@ -933,8 +860,8 @@
       <c r="I6" s="3">
         <v>10300</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>14</v>
+      <c r="J6" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="K6" s="2">
         <v>16.6998</v>
@@ -946,11 +873,11 @@
         <f t="shared" si="1"/>
         <v>3.01765386E-2</v>
       </c>
-      <c r="N6" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N6" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2014</v>
       </c>
@@ -962,7 +889,7 @@
         <v>2014_3</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E7" s="5">
         <v>3</v>
@@ -979,8 +906,8 @@
       <c r="I7" s="3">
         <v>12300</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>14</v>
+      <c r="J7" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="K7" s="2">
         <v>20.0715</v>
@@ -992,11 +919,11 @@
         <f t="shared" si="1"/>
         <v>3.6269200500000001E-2</v>
       </c>
-      <c r="N7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N7" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2014</v>
       </c>
@@ -1008,7 +935,7 @@
         <v>2014_3</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E8" s="5">
         <v>5</v>
@@ -1025,8 +952,8 @@
       <c r="I8" s="3">
         <v>10960</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>14</v>
+      <c r="J8" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="K8" s="2">
         <v>26.659300000000002</v>
@@ -1038,11 +965,11 @@
         <f t="shared" si="1"/>
         <v>4.8173355100000002E-2</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N8" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2014</v>
       </c>
@@ -1054,7 +981,7 @@
         <v>2014_3</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1071,8 +998,8 @@
       <c r="I9" s="3">
         <v>12410</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>14</v>
+      <c r="J9" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="K9" s="2">
         <v>49.3675</v>
@@ -1084,11 +1011,11 @@
         <f t="shared" si="1"/>
         <v>8.9207072499999998E-2</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N9" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2014</v>
       </c>
@@ -1100,7 +1027,7 @@
         <v>2014_3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E10" s="5">
         <v>3</v>
@@ -1117,8 +1044,8 @@
       <c r="I10" s="3">
         <v>11800</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>14</v>
+      <c r="J10" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="K10" s="2">
         <v>40.689399999999999</v>
@@ -1130,11 +1057,11 @@
         <f>K10*0.001807</f>
         <v>7.35257458E-2</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N10" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="16">
         <v>2014</v>
       </c>
@@ -1146,7 +1073,7 @@
         <v>2014_3</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E11" s="16">
         <v>5</v>
@@ -1163,8 +1090,8 @@
       <c r="I11" s="16">
         <v>15020</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>14</v>
+      <c r="J11" s="28" t="s">
+        <v>11</v>
       </c>
       <c r="K11" s="7">
         <v>36.428600000000003</v>
@@ -1176,11 +1103,11 @@
         <f t="shared" si="1"/>
         <v>6.5826480200000009E-2</v>
       </c>
-      <c r="N11" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N11" s="39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2015</v>
       </c>
@@ -1192,7 +1119,7 @@
         <v>2015_10</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E12" s="23">
         <v>3</v>
@@ -1216,7 +1143,7 @@
         <v>330.91299999999995</v>
       </c>
       <c r="L12" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M12" s="6">
         <f t="shared" ref="M12:M19" si="2">K12*0.001807</f>
@@ -1226,7 +1153,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2015</v>
       </c>
@@ -1238,7 +1165,7 @@
         <v>2015_10</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E13" s="23">
         <v>4</v>
@@ -1262,7 +1189,7 @@
         <v>54.618099999999998</v>
       </c>
       <c r="L13" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M13" s="6">
         <f t="shared" si="2"/>
@@ -1272,7 +1199,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2015</v>
       </c>
@@ -1284,7 +1211,7 @@
         <v>2015_10</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E14" s="10">
         <v>5</v>
@@ -1308,7 +1235,7 @@
         <v>71.430800000000005</v>
       </c>
       <c r="L14" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M14" s="6">
         <f t="shared" si="2"/>
@@ -1318,7 +1245,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2015</v>
       </c>
@@ -1330,7 +1257,7 @@
         <v>2015_10</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E15" s="10">
         <v>6</v>
@@ -1354,7 +1281,7 @@
         <v>64.841300000000004</v>
       </c>
       <c r="L15" s="23" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M15" s="6">
         <f t="shared" si="2"/>
@@ -1364,7 +1291,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2015</v>
       </c>
@@ -1376,7 +1303,7 @@
         <v>2015_10</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -1410,7 +1337,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2015</v>
       </c>
@@ -1422,7 +1349,7 @@
         <v>2015_10</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E17" s="10">
         <v>4</v>
@@ -1456,7 +1383,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2015</v>
       </c>
@@ -1468,7 +1395,7 @@
         <v>2015_10</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E18" s="10">
         <v>5</v>
@@ -1492,7 +1419,7 @@
         <v>65.250600000000006</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M18" s="6">
         <f t="shared" si="2"/>
@@ -1502,7 +1429,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2015</v>
       </c>
@@ -1514,7 +1441,7 @@
         <v>2015_10</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E19" s="10">
         <v>6</v>
@@ -1538,17 +1465,17 @@
         <v>75.702799999999996</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M19" s="6">
         <f t="shared" si="2"/>
         <v>0.13679495959999999</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2015</v>
       </c>
@@ -1560,7 +1487,7 @@
         <v>2015_10</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E20" s="10">
         <v>3</v>
@@ -1584,7 +1511,7 @@
         <v>51.1631</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M20" s="6">
         <f t="shared" ref="M20:M34" si="3">K20*0.001807</f>
@@ -1594,7 +1521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2015</v>
       </c>
@@ -1606,7 +1533,7 @@
         <v>2015_10</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E21" s="10">
         <v>4</v>
@@ -1630,7 +1557,7 @@
         <v>58.7791</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M21" s="6">
         <f t="shared" si="3"/>
@@ -1640,7 +1567,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2015</v>
       </c>
@@ -1652,7 +1579,7 @@
         <v>2015_10</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E22" s="10">
         <v>5</v>
@@ -1676,7 +1603,7 @@
         <v>76.245500000000007</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M22" s="6">
         <f t="shared" si="3"/>
@@ -1686,7 +1613,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2015</v>
       </c>
@@ -1698,7 +1625,7 @@
         <v>2015_10</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E23" s="10">
         <v>6</v>
@@ -1722,7 +1649,7 @@
         <v>59.747799999999998</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M23" s="6">
         <f t="shared" si="3"/>
@@ -1732,7 +1659,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2015</v>
       </c>
@@ -1744,7 +1671,7 @@
         <v>2015_10</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E24" s="10">
         <v>3</v>
@@ -1778,7 +1705,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2015</v>
       </c>
@@ -1790,7 +1717,7 @@
         <v>2015_10</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E25" s="10">
         <v>4</v>
@@ -1824,7 +1751,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2015</v>
       </c>
@@ -1836,7 +1763,7 @@
         <v>2015_10</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E26" s="10">
         <v>5</v>
@@ -1870,7 +1797,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2015</v>
       </c>
@@ -1882,7 +1809,7 @@
         <v>2015_10</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E27" s="23">
         <v>6</v>
@@ -1916,7 +1843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>2015</v>
       </c>
@@ -1928,7 +1855,7 @@
         <v>2015_10</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E28" s="23">
         <v>3</v>
@@ -1962,7 +1889,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>2015</v>
       </c>
@@ -1974,7 +1901,7 @@
         <v>2015_10</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E29" s="23">
         <v>4</v>
@@ -2008,7 +1935,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>2015</v>
       </c>
@@ -2020,7 +1947,7 @@
         <v>2015_10</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E30" s="23">
         <v>5</v>
@@ -2054,7 +1981,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="16">
         <v>2015</v>
       </c>
@@ -2066,7 +1993,7 @@
         <v>2015_10</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E31" s="25">
         <v>6</v>
@@ -2100,7 +2027,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>2015</v>
       </c>
@@ -2112,7 +2039,7 @@
         <v>2015_7</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E32" s="23">
         <v>3</v>
@@ -2136,17 +2063,17 @@
         <v>28.1783</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M32" s="6">
         <f t="shared" si="3"/>
         <v>5.0918188099999998E-2</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N32" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>2015</v>
       </c>
@@ -2158,7 +2085,7 @@
         <v>2015_7</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E33" s="23">
         <v>4</v>
@@ -2182,17 +2109,17 @@
         <v>23.835599999999999</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M33" s="6">
         <f t="shared" si="3"/>
         <v>4.3070929199999997E-2</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>2015</v>
       </c>
@@ -2204,7 +2131,7 @@
         <v>2015_7</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E34" s="23">
         <v>5</v>
@@ -2228,17 +2155,17 @@
         <v>37.9985</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M34" s="6">
         <f t="shared" si="3"/>
         <v>6.8663289500000002E-2</v>
       </c>
-      <c r="N34" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>2015</v>
       </c>
@@ -2250,7 +2177,7 @@
         <v>2015_7</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E35" s="10">
         <v>6</v>
@@ -2274,17 +2201,17 @@
         <v>39.971400000000003</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M35" s="6">
         <f t="shared" ref="M35:M51" si="5">K35*0.001807</f>
         <v>7.222831980000001E-2</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>2015</v>
       </c>
@@ -2296,7 +2223,7 @@
         <v>2015_7</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E36" s="10">
         <v>1</v>
@@ -2326,11 +2253,11 @@
         <f t="shared" si="5"/>
         <v>4.3436485300000001E-2</v>
       </c>
-      <c r="N36" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>2015</v>
       </c>
@@ -2342,7 +2269,7 @@
         <v>2015_7</v>
       </c>
       <c r="D37" s="22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E37" s="10">
         <v>4</v>
@@ -2366,17 +2293,17 @@
         <v>41.889800000000001</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M37" s="6">
         <f t="shared" si="5"/>
         <v>7.5694868600000006E-2</v>
       </c>
-      <c r="N37" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>2015</v>
       </c>
@@ -2388,7 +2315,7 @@
         <v>2015_7</v>
       </c>
       <c r="D38" s="22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E38" s="10">
         <v>5</v>
@@ -2412,17 +2339,17 @@
         <v>26.870200000000001</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M38" s="6">
         <f t="shared" si="5"/>
         <v>4.8554451400000004E-2</v>
       </c>
-      <c r="N38" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>2015</v>
       </c>
@@ -2434,7 +2361,7 @@
         <v>2015_7</v>
       </c>
       <c r="D39" s="22" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E39" s="10">
         <v>6</v>
@@ -2458,17 +2385,17 @@
         <v>29.8659</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M39" s="6">
         <f t="shared" si="5"/>
         <v>5.3967681300000001E-2</v>
       </c>
-      <c r="N39" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>2015</v>
       </c>
@@ -2480,7 +2407,7 @@
         <v>2015_7</v>
       </c>
       <c r="D40" s="22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E40" s="10">
         <v>3</v>
@@ -2504,17 +2431,17 @@
         <v>28.709</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M40" s="6">
         <f t="shared" si="5"/>
         <v>5.1877162999999997E-2</v>
       </c>
-      <c r="N40" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>2015</v>
       </c>
@@ -2526,7 +2453,7 @@
         <v>2015_7</v>
       </c>
       <c r="D41" s="22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E41" s="10">
         <v>4</v>
@@ -2556,11 +2483,11 @@
         <f t="shared" si="5"/>
         <v>3.08872317E-2</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>2015</v>
       </c>
@@ -2572,7 +2499,7 @@
         <v>2015_7</v>
       </c>
       <c r="D42" s="22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E42" s="10">
         <v>5</v>
@@ -2596,17 +2523,17 @@
         <v>27.9635</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M42" s="6">
         <f t="shared" si="5"/>
         <v>5.0530044500000003E-2</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>2015</v>
       </c>
@@ -2618,7 +2545,7 @@
         <v>2015_7</v>
       </c>
       <c r="D43" s="22" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E43" s="10">
         <v>6</v>
@@ -2642,17 +2569,17 @@
         <v>22.570699999999999</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M43" s="6">
         <f t="shared" si="5"/>
         <v>4.0785254899999998E-2</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>2015</v>
       </c>
@@ -2664,7 +2591,7 @@
         <v>2015_7</v>
       </c>
       <c r="D44" s="22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E44" s="10">
         <v>3</v>
@@ -2694,11 +2621,11 @@
         <f t="shared" si="5"/>
         <v>1.5698493200000001</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N44" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>2015</v>
       </c>
@@ -2710,7 +2637,7 @@
         <v>2015_7</v>
       </c>
       <c r="D45" s="22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E45" s="10">
         <v>4</v>
@@ -2740,11 +2667,11 @@
         <f t="shared" si="5"/>
         <v>2.4975992600000003</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>2015</v>
       </c>
@@ -2756,7 +2683,7 @@
         <v>2015_7</v>
       </c>
       <c r="D46" s="22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E46" s="10">
         <v>5</v>
@@ -2786,11 +2713,11 @@
         <f t="shared" si="5"/>
         <v>6.4235416699999996</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N46" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>2015</v>
       </c>
@@ -2802,7 +2729,7 @@
         <v>2015_7</v>
       </c>
       <c r="D47" s="22" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E47" s="23">
         <v>6</v>
@@ -2832,11 +2759,11 @@
         <f t="shared" si="5"/>
         <v>3.5354858500000002</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N47" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>2015</v>
       </c>
@@ -2848,7 +2775,7 @@
         <v>2015_7</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E48" s="23">
         <v>3</v>
@@ -2872,17 +2799,17 @@
         <v>23.860399999999998</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M48" s="6">
         <f t="shared" si="5"/>
         <v>4.3115742799999995E-2</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N48" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>2015</v>
       </c>
@@ -2894,7 +2821,7 @@
         <v>2015_7</v>
       </c>
       <c r="D49" s="22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E49" s="23">
         <v>4</v>
@@ -2918,17 +2845,17 @@
         <v>36.526699999999998</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M49" s="6">
         <f t="shared" si="5"/>
         <v>6.6003746899999993E-2</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>2015</v>
       </c>
@@ -2940,7 +2867,7 @@
         <v>2015_7</v>
       </c>
       <c r="D50" s="22" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E50" s="23">
         <v>5</v>
@@ -2964,17 +2891,17 @@
         <v>29.405999999999999</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M50" s="6">
         <f t="shared" si="5"/>
         <v>5.3136641999999998E-2</v>
       </c>
-      <c r="N50" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N50" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" s="16">
         <v>2015</v>
       </c>
@@ -2986,7 +2913,7 @@
         <v>2015_7</v>
       </c>
       <c r="D51" s="20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E51" s="25">
         <v>6</v>
@@ -3016,11 +2943,11 @@
         <f t="shared" si="5"/>
         <v>4.8099268100000002E-2</v>
       </c>
-      <c r="N51" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>2016</v>
       </c>
@@ -3032,7 +2959,7 @@
         <v>2016_10</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E52" s="23">
         <v>3</v>
@@ -3066,7 +2993,7 @@
         <v>23.25</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>2016</v>
       </c>
@@ -3078,7 +3005,7 @@
         <v>2016_10</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E53" s="23">
         <v>4</v>
@@ -3112,7 +3039,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>2016</v>
       </c>
@@ -3124,7 +3051,7 @@
         <v>2016_10</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E54" s="23">
         <v>5</v>
@@ -3158,7 +3085,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>2016</v>
       </c>
@@ -3170,7 +3097,7 @@
         <v>2016_10</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E55" s="23">
         <v>6</v>
@@ -3204,7 +3131,7 @@
         <v>20.75</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>2016</v>
       </c>
@@ -3216,7 +3143,7 @@
         <v>2016_10</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E56" s="10">
         <v>1</v>
@@ -3250,7 +3177,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>2016</v>
       </c>
@@ -3262,7 +3189,7 @@
         <v>2016_10</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E57" s="10">
         <v>4</v>
@@ -3296,7 +3223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>2016</v>
       </c>
@@ -3308,7 +3235,7 @@
         <v>2016_10</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E58" s="10">
         <v>5</v>
@@ -3342,7 +3269,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>2016</v>
       </c>
@@ -3354,7 +3281,7 @@
         <v>2016_10</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E59" s="10">
         <v>6</v>
@@ -3388,7 +3315,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>2016</v>
       </c>
@@ -3400,7 +3327,7 @@
         <v>2016_10</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E60" s="10">
         <v>3</v>
@@ -3434,7 +3361,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>2016</v>
       </c>
@@ -3446,7 +3373,7 @@
         <v>2016_10</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E61" s="10">
         <v>4</v>
@@ -3480,7 +3407,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>2016</v>
       </c>
@@ -3492,7 +3419,7 @@
         <v>2016_10</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E62" s="10">
         <v>5</v>
@@ -3526,7 +3453,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>2016</v>
       </c>
@@ -3538,7 +3465,7 @@
         <v>2016_10</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E63" s="10">
         <v>6</v>
@@ -3572,7 +3499,7 @@
         <v>19.75</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>2016</v>
       </c>
@@ -3584,7 +3511,7 @@
         <v>2016_10</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E64" s="10">
         <v>3</v>
@@ -3618,7 +3545,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>2016</v>
       </c>
@@ -3630,7 +3557,7 @@
         <v>2016_10</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E65" s="10">
         <v>4</v>
@@ -3664,7 +3591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>2016</v>
       </c>
@@ -3676,7 +3603,7 @@
         <v>2016_10</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E66" s="10">
         <v>5</v>
@@ -3710,7 +3637,7 @@
         <v>26.75</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>2016</v>
       </c>
@@ -3722,7 +3649,7 @@
         <v>2016_10</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E67" s="10">
         <v>6</v>
@@ -3756,7 +3683,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>2016</v>
       </c>
@@ -3768,7 +3695,7 @@
         <v>2016_10</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E68" s="10">
         <v>3</v>
@@ -3802,7 +3729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>2016</v>
       </c>
@@ -3814,7 +3741,7 @@
         <v>2016_10</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E69" s="23">
         <v>4</v>
@@ -3848,7 +3775,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>2016</v>
       </c>
@@ -3860,7 +3787,7 @@
         <v>2016_10</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E70" s="23">
         <v>5</v>
@@ -3894,7 +3821,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71" s="16">
         <v>2016</v>
       </c>
@@ -3906,7 +3833,7 @@
         <v>2016_10</v>
       </c>
       <c r="D71" s="25" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E71" s="25">
         <v>6</v>
@@ -3940,7 +3867,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>2017</v>
       </c>
@@ -3952,7 +3879,7 @@
         <v>2017_7</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E72" s="23">
         <v>3</v>
@@ -3986,7 +3913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>2017</v>
       </c>
@@ -3998,7 +3925,7 @@
         <v>2017_7</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E73" s="23">
         <v>4</v>
@@ -4032,7 +3959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>2017</v>
       </c>
@@ -4044,7 +3971,7 @@
         <v>2017_7</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E74" s="23">
         <v>5</v>
@@ -4078,7 +4005,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>2017</v>
       </c>
@@ -4090,7 +4017,7 @@
         <v>2017_7</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E75" s="23">
         <v>6</v>
@@ -4124,7 +4051,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>2017</v>
       </c>
@@ -4136,7 +4063,7 @@
         <v>2017_7</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E76" s="23">
         <v>3</v>
@@ -4170,7 +4097,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>2017</v>
       </c>
@@ -4182,7 +4109,7 @@
         <v>2017_7</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E77" s="23">
         <v>4</v>
@@ -4216,7 +4143,7 @@
         <v>25.75</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>2017</v>
       </c>
@@ -4228,7 +4155,7 @@
         <v>2017_7</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E78" s="23">
         <v>5</v>
@@ -4262,7 +4189,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>2017</v>
       </c>
@@ -4274,7 +4201,7 @@
         <v>2017_7</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E79" s="13">
         <v>5</v>
